--- a/IR Sensor data.xlsx
+++ b/IR Sensor data.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9648" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9960" windowHeight="7236" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="White" sheetId="1" r:id="rId1"/>
@@ -19,29 +19,29 @@
     <sheet name="Encoder1" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Encoder1!$A$3</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Encoder1!$C$3:$AZ$3</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">Encoder1!$A$6</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">Encoder1!$C$6:$AZ$6</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">Encoder1!$A$16</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">Encoder1!$C$16:$AZ$16</definedName>
-    <definedName name="_xlchart.v1.14" hidden="1">Encoder1!$A$5</definedName>
-    <definedName name="_xlchart.v1.15" hidden="1">Encoder1!$C$5:$AZ$5</definedName>
-    <definedName name="_xlchart.v1.16" hidden="1">Encoder1!$A$2</definedName>
-    <definedName name="_xlchart.v1.17" hidden="1">Encoder1!$C$2:$AZ$2</definedName>
-    <definedName name="_xlchart.v1.18" hidden="1">(Encoder1!$A$15,Encoder1!$C$15:$AZ$15)</definedName>
-    <definedName name="_xlchart.v1.19" hidden="1">Encoder1!$A$14</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Encoder1!$A$12</definedName>
-    <definedName name="_xlchart.v1.20" hidden="1">Encoder1!$C$14:$AZ$14</definedName>
-    <definedName name="_xlchart.v1.21" hidden="1">Encoder1!$A$17</definedName>
-    <definedName name="_xlchart.v1.22" hidden="1">Encoder1!$C$17:$AZ$17</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Encoder1!$C$12:$AZ$12</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Encoder1!$A$7</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Encoder1!$C$7:$AZ$7</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">Encoder1!$A$13</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">Encoder1!$C$13:$BB$13</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">Encoder1!$A$4</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">Encoder1!$C$4:$AZ$4</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">Encoder1!$A$16</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Encoder1!$C$16:$AZ$16</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">Encoder1!$C$6:$AZ$6</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">Encoder1!$A$4</definedName>
+    <definedName name="_xlchart.v1.12" hidden="1">Encoder1!$C$4:$AZ$4</definedName>
+    <definedName name="_xlchart.v1.13" hidden="1">Encoder1!$A$14</definedName>
+    <definedName name="_xlchart.v1.14" hidden="1">Encoder1!$C$14:$AZ$14</definedName>
+    <definedName name="_xlchart.v1.15" hidden="1">Encoder1!$A$2</definedName>
+    <definedName name="_xlchart.v1.16" hidden="1">Encoder1!$C$2:$AZ$2</definedName>
+    <definedName name="_xlchart.v1.17" hidden="1">Encoder1!$A$12</definedName>
+    <definedName name="_xlchart.v1.18" hidden="1">Encoder1!$C$12:$AZ$12</definedName>
+    <definedName name="_xlchart.v1.19" hidden="1">Encoder1!$A$7</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Encoder1!$A$3</definedName>
+    <definedName name="_xlchart.v1.20" hidden="1">Encoder1!$C$7:$AZ$7</definedName>
+    <definedName name="_xlchart.v1.21" hidden="1">Encoder1!$A$13</definedName>
+    <definedName name="_xlchart.v1.22" hidden="1">Encoder1!$C$13:$BB$13</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Encoder1!$C$3:$AZ$3</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Encoder1!$A$5</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Encoder1!$C$5:$AZ$5</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">(Encoder1!$A$15,Encoder1!$C$15:$AZ$15)</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">Encoder1!$A$17</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">Encoder1!$C$17:$AZ$17</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">Encoder1!$A$6</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="48">
   <si>
     <t>LOG</t>
   </si>
@@ -189,6 +189,15 @@
   <si>
     <t>Std Dev</t>
   </si>
+  <si>
+    <t>log(Average)*m +c</t>
+  </si>
+  <si>
+    <t>log(log(Average))*m+c</t>
+  </si>
+  <si>
+    <t>difference from actual value</t>
+  </si>
 </sst>
 </file>
 
@@ -223,8 +232,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3294,6 +3306,36 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Distance</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" baseline="0"/>
+              <a:t> of surface from robot and its read values</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-GB"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3330,6 +3372,128 @@
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'White Background'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'White Background'!$A$2:$A$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>125</c:v>
+                </c:pt>
+              </c:numCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'White Background'!$B$2:$B$26</c:f>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-C429-488F-BC67-56CC6B7FEA84}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
           <c:idx val="2"/>
           <c:order val="2"/>
           <c:tx>
@@ -3442,91 +3606,137 @@
           <c:val>
             <c:numRef>
               <c:f>'White Background'!$C$2:$C$26</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="25"/>
-                <c:pt idx="0">
-                  <c:v>3835</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3766</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2550</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1750</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1200</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>845</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>656</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>488</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>394</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>314</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>261</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>214</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>180</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>150</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>126</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>103</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>89</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>72</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>51</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>42</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>34</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>16</c:v>
-                </c:pt>
-              </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-C429-488F-BC67-56CC6B7FEA84}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'White Background'!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>LOG 1</c:v>
+                </c:pt>
+              </c:strCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'White Background'!$A$2:$A$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>125</c:v>
+                </c:pt>
+              </c:numCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'White Background'!$D$2:$D$26</c:f>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-C429-488F-BC67-56CC6B7FEA84}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3643,91 +3853,137 @@
           <c:val>
             <c:numRef>
               <c:f>'White Background'!$E$2:$E$26</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="25"/>
-                <c:pt idx="0">
-                  <c:v>3835</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3797</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2794</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1824</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1249</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>917</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>677</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>530</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>414</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>327</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>269</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>221</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>187</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>155</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>129</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>108</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>91</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>76</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>63</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>52</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>43</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>34</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>20</c:v>
-                </c:pt>
-              </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-C429-488F-BC67-56CC6B7FEA84}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'White Background'!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>LOG 2</c:v>
+                </c:pt>
+              </c:strCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'White Background'!$A$2:$A$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>125</c:v>
+                </c:pt>
+              </c:numCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'White Background'!$F$2:$F$26</c:f>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-C429-488F-BC67-56CC6B7FEA84}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3846,91 +4102,139 @@
           <c:val>
             <c:numRef>
               <c:f>'White Background'!$G$2:$G$26</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="25"/>
-                <c:pt idx="0">
-                  <c:v>3845</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3820</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2947</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1980</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1444</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1053</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>779</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>580</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>471</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>367</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>315</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>260</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>217</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>174</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>156</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>126</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>105</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>72</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>53</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>39</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>22</c:v>
-                </c:pt>
-              </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000006-C429-488F-BC67-56CC6B7FEA84}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'White Background'!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>LOG 3</c:v>
+                </c:pt>
+              </c:strCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'White Background'!$A$2:$A$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>125</c:v>
+                </c:pt>
+              </c:numCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'White Background'!$H$2:$H$26</c:f>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-C429-488F-BC67-56CC6B7FEA84}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4134,6 +4438,133 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000009-C429-488F-BC67-56CC6B7FEA84}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="11"/>
+          <c:order val="11"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'White Background'!$M$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Average of LOG</c:v>
+                </c:pt>
+              </c:strCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'White Background'!$A$2:$A$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>125</c:v>
+                </c:pt>
+              </c:numCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'White Background'!$M$2:$M$26</c:f>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000C-C429-488F-BC67-56CC6B7FEA84}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4367,814 +4798,6 @@
                 <c:extLst>
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000000-C429-488F-BC67-56CC6B7FEA84}"/>
-                  </c:ext>
-                </c:extLst>
-              </c15:ser>
-            </c15:filteredLineSeries>
-            <c15:filteredLineSeries>
-              <c15:ser>
-                <c:idx val="1"/>
-                <c:order val="1"/>
-                <c:tx>
-                  <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>'White Background'!$B$1</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="1"/>
-                    </c:strCache>
-                  </c:strRef>
-                </c:tx>
-                <c:spPr>
-                  <a:ln w="28575" cap="rnd">
-                    <a:solidFill>
-                      <a:schemeClr val="accent2"/>
-                    </a:solidFill>
-                    <a:round/>
-                  </a:ln>
-                  <a:effectLst/>
-                </c:spPr>
-                <c:marker>
-                  <c:symbol val="none"/>
-                </c:marker>
-                <c:cat>
-                  <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>'White Background'!$A$2:$A$26</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="25"/>
-                      <c:pt idx="0">
-                        <c:v>5</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>10</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>15</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>20</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>25</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>30</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>35</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>40</c:v>
-                      </c:pt>
-                      <c:pt idx="8">
-                        <c:v>45</c:v>
-                      </c:pt>
-                      <c:pt idx="9">
-                        <c:v>50</c:v>
-                      </c:pt>
-                      <c:pt idx="10">
-                        <c:v>55</c:v>
-                      </c:pt>
-                      <c:pt idx="11">
-                        <c:v>60</c:v>
-                      </c:pt>
-                      <c:pt idx="12">
-                        <c:v>65</c:v>
-                      </c:pt>
-                      <c:pt idx="13">
-                        <c:v>70</c:v>
-                      </c:pt>
-                      <c:pt idx="14">
-                        <c:v>75</c:v>
-                      </c:pt>
-                      <c:pt idx="15">
-                        <c:v>80</c:v>
-                      </c:pt>
-                      <c:pt idx="16">
-                        <c:v>85</c:v>
-                      </c:pt>
-                      <c:pt idx="17">
-                        <c:v>90</c:v>
-                      </c:pt>
-                      <c:pt idx="18">
-                        <c:v>95</c:v>
-                      </c:pt>
-                      <c:pt idx="19">
-                        <c:v>100</c:v>
-                      </c:pt>
-                      <c:pt idx="20">
-                        <c:v>105</c:v>
-                      </c:pt>
-                      <c:pt idx="21">
-                        <c:v>110</c:v>
-                      </c:pt>
-                      <c:pt idx="22">
-                        <c:v>115</c:v>
-                      </c:pt>
-                      <c:pt idx="23">
-                        <c:v>120</c:v>
-                      </c:pt>
-                      <c:pt idx="24">
-                        <c:v>125</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:cat>
-                <c:val>
-                  <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>'White Background'!$B$2:$B$26</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="25"/>
-                    </c:numCache>
-                  </c:numRef>
-                </c:val>
-                <c:smooth val="0"/>
-                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000001-C429-488F-BC67-56CC6B7FEA84}"/>
-                  </c:ext>
-                </c:extLst>
-              </c15:ser>
-            </c15:filteredLineSeries>
-            <c15:filteredLineSeries>
-              <c15:ser>
-                <c:idx val="3"/>
-                <c:order val="3"/>
-                <c:tx>
-                  <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>'White Background'!$D$1</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="1"/>
-                      <c:pt idx="0">
-                        <c:v>LOG 1</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c:tx>
-                <c:spPr>
-                  <a:ln w="28575" cap="rnd">
-                    <a:solidFill>
-                      <a:schemeClr val="accent4"/>
-                    </a:solidFill>
-                    <a:round/>
-                  </a:ln>
-                  <a:effectLst/>
-                </c:spPr>
-                <c:marker>
-                  <c:symbol val="none"/>
-                </c:marker>
-                <c:cat>
-                  <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>'White Background'!$A$2:$A$26</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="25"/>
-                      <c:pt idx="0">
-                        <c:v>5</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>10</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>15</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>20</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>25</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>30</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>35</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>40</c:v>
-                      </c:pt>
-                      <c:pt idx="8">
-                        <c:v>45</c:v>
-                      </c:pt>
-                      <c:pt idx="9">
-                        <c:v>50</c:v>
-                      </c:pt>
-                      <c:pt idx="10">
-                        <c:v>55</c:v>
-                      </c:pt>
-                      <c:pt idx="11">
-                        <c:v>60</c:v>
-                      </c:pt>
-                      <c:pt idx="12">
-                        <c:v>65</c:v>
-                      </c:pt>
-                      <c:pt idx="13">
-                        <c:v>70</c:v>
-                      </c:pt>
-                      <c:pt idx="14">
-                        <c:v>75</c:v>
-                      </c:pt>
-                      <c:pt idx="15">
-                        <c:v>80</c:v>
-                      </c:pt>
-                      <c:pt idx="16">
-                        <c:v>85</c:v>
-                      </c:pt>
-                      <c:pt idx="17">
-                        <c:v>90</c:v>
-                      </c:pt>
-                      <c:pt idx="18">
-                        <c:v>95</c:v>
-                      </c:pt>
-                      <c:pt idx="19">
-                        <c:v>100</c:v>
-                      </c:pt>
-                      <c:pt idx="20">
-                        <c:v>105</c:v>
-                      </c:pt>
-                      <c:pt idx="21">
-                        <c:v>110</c:v>
-                      </c:pt>
-                      <c:pt idx="22">
-                        <c:v>115</c:v>
-                      </c:pt>
-                      <c:pt idx="23">
-                        <c:v>120</c:v>
-                      </c:pt>
-                      <c:pt idx="24">
-                        <c:v>125</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:cat>
-                <c:val>
-                  <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>'White Background'!$D$2:$D$26</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="25"/>
-                      <c:pt idx="0">
-                        <c:v>3.5837653682849999</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>3.5758803156806458</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>3.406540180433955</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>3.2430380486862944</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>3.0791812460476247</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>2.9268567089496922</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>2.8169038393756605</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>2.6884198220027105</c:v>
-                      </c:pt>
-                      <c:pt idx="8">
-                        <c:v>2.5954962218255742</c:v>
-                      </c:pt>
-                      <c:pt idx="9">
-                        <c:v>2.4969296480732148</c:v>
-                      </c:pt>
-                      <c:pt idx="10">
-                        <c:v>2.4166405073382808</c:v>
-                      </c:pt>
-                      <c:pt idx="11">
-                        <c:v>2.330413773349191</c:v>
-                      </c:pt>
-                      <c:pt idx="12">
-                        <c:v>2.255272505103306</c:v>
-                      </c:pt>
-                      <c:pt idx="13">
-                        <c:v>2.1760912590556813</c:v>
-                      </c:pt>
-                      <c:pt idx="14">
-                        <c:v>2.1003705451175629</c:v>
-                      </c:pt>
-                      <c:pt idx="15">
-                        <c:v>2.012837224705172</c:v>
-                      </c:pt>
-                      <c:pt idx="16">
-                        <c:v>1.9493900066449128</c:v>
-                      </c:pt>
-                      <c:pt idx="17">
-                        <c:v>1.8573324964312685</c:v>
-                      </c:pt>
-                      <c:pt idx="18">
-                        <c:v>1.7781512503836436</c:v>
-                      </c:pt>
-                      <c:pt idx="19">
-                        <c:v>1.7075701760979363</c:v>
-                      </c:pt>
-                      <c:pt idx="20">
-                        <c:v>1.6232492903979006</c:v>
-                      </c:pt>
-                      <c:pt idx="21">
-                        <c:v>1.5314789170422551</c:v>
-                      </c:pt>
-                      <c:pt idx="22">
-                        <c:v>1.4771212547196624</c:v>
-                      </c:pt>
-                      <c:pt idx="23">
-                        <c:v>1.255272505103306</c:v>
-                      </c:pt>
-                      <c:pt idx="24">
-                        <c:v>1.2041199826559248</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:val>
-                <c:smooth val="0"/>
-                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000003-C429-488F-BC67-56CC6B7FEA84}"/>
-                  </c:ext>
-                </c:extLst>
-              </c15:ser>
-            </c15:filteredLineSeries>
-            <c15:filteredLineSeries>
-              <c15:ser>
-                <c:idx val="5"/>
-                <c:order val="5"/>
-                <c:tx>
-                  <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>'White Background'!$F$1</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="1"/>
-                      <c:pt idx="0">
-                        <c:v>LOG 2</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c:tx>
-                <c:spPr>
-                  <a:ln w="28575" cap="rnd">
-                    <a:solidFill>
-                      <a:schemeClr val="accent6"/>
-                    </a:solidFill>
-                    <a:round/>
-                  </a:ln>
-                  <a:effectLst/>
-                </c:spPr>
-                <c:marker>
-                  <c:symbol val="none"/>
-                </c:marker>
-                <c:cat>
-                  <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>'White Background'!$A$2:$A$26</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="25"/>
-                      <c:pt idx="0">
-                        <c:v>5</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>10</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>15</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>20</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>25</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>30</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>35</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>40</c:v>
-                      </c:pt>
-                      <c:pt idx="8">
-                        <c:v>45</c:v>
-                      </c:pt>
-                      <c:pt idx="9">
-                        <c:v>50</c:v>
-                      </c:pt>
-                      <c:pt idx="10">
-                        <c:v>55</c:v>
-                      </c:pt>
-                      <c:pt idx="11">
-                        <c:v>60</c:v>
-                      </c:pt>
-                      <c:pt idx="12">
-                        <c:v>65</c:v>
-                      </c:pt>
-                      <c:pt idx="13">
-                        <c:v>70</c:v>
-                      </c:pt>
-                      <c:pt idx="14">
-                        <c:v>75</c:v>
-                      </c:pt>
-                      <c:pt idx="15">
-                        <c:v>80</c:v>
-                      </c:pt>
-                      <c:pt idx="16">
-                        <c:v>85</c:v>
-                      </c:pt>
-                      <c:pt idx="17">
-                        <c:v>90</c:v>
-                      </c:pt>
-                      <c:pt idx="18">
-                        <c:v>95</c:v>
-                      </c:pt>
-                      <c:pt idx="19">
-                        <c:v>100</c:v>
-                      </c:pt>
-                      <c:pt idx="20">
-                        <c:v>105</c:v>
-                      </c:pt>
-                      <c:pt idx="21">
-                        <c:v>110</c:v>
-                      </c:pt>
-                      <c:pt idx="22">
-                        <c:v>115</c:v>
-                      </c:pt>
-                      <c:pt idx="23">
-                        <c:v>120</c:v>
-                      </c:pt>
-                      <c:pt idx="24">
-                        <c:v>125</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:cat>
-                <c:val>
-                  <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>'White Background'!$F$2:$F$26</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="25"/>
-                      <c:pt idx="0">
-                        <c:v>3.5837653682849999</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>3.5794405971397971</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>3.446226401778163</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>3.2610248339923973</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>3.0965624383741357</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>2.9623693356700209</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>2.8305886686851442</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>2.7242758696007892</c:v>
-                      </c:pt>
-                      <c:pt idx="8">
-                        <c:v>2.6170003411208991</c:v>
-                      </c:pt>
-                      <c:pt idx="9">
-                        <c:v>2.514547752660286</c:v>
-                      </c:pt>
-                      <c:pt idx="10">
-                        <c:v>2.4297522800024081</c:v>
-                      </c:pt>
-                      <c:pt idx="11">
-                        <c:v>2.3443922736851106</c:v>
-                      </c:pt>
-                      <c:pt idx="12">
-                        <c:v>2.271841606536499</c:v>
-                      </c:pt>
-                      <c:pt idx="13">
-                        <c:v>2.1903316981702914</c:v>
-                      </c:pt>
-                      <c:pt idx="14">
-                        <c:v>2.1105897102992488</c:v>
-                      </c:pt>
-                      <c:pt idx="15">
-                        <c:v>2.0334237554869499</c:v>
-                      </c:pt>
-                      <c:pt idx="16">
-                        <c:v>1.9590413923210936</c:v>
-                      </c:pt>
-                      <c:pt idx="17">
-                        <c:v>1.8808135922807914</c:v>
-                      </c:pt>
-                      <c:pt idx="18">
-                        <c:v>1.7993405494535817</c:v>
-                      </c:pt>
-                      <c:pt idx="19">
-                        <c:v>1.7160033436347992</c:v>
-                      </c:pt>
-                      <c:pt idx="20">
-                        <c:v>1.6334684555795864</c:v>
-                      </c:pt>
-                      <c:pt idx="21">
-                        <c:v>1.5314789170422551</c:v>
-                      </c:pt>
-                      <c:pt idx="22">
-                        <c:v>1.4913616938342726</c:v>
-                      </c:pt>
-                      <c:pt idx="23">
-                        <c:v>1.3802112417116059</c:v>
-                      </c:pt>
-                      <c:pt idx="24">
-                        <c:v>1.3010299956639813</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:val>
-                <c:smooth val="0"/>
-                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000005-C429-488F-BC67-56CC6B7FEA84}"/>
-                  </c:ext>
-                </c:extLst>
-              </c15:ser>
-            </c15:filteredLineSeries>
-            <c15:filteredLineSeries>
-              <c15:ser>
-                <c:idx val="7"/>
-                <c:order val="7"/>
-                <c:tx>
-                  <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>'White Background'!$H$1</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="1"/>
-                      <c:pt idx="0">
-                        <c:v>LOG 3</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c:tx>
-                <c:spPr>
-                  <a:ln w="28575" cap="rnd">
-                    <a:solidFill>
-                      <a:schemeClr val="accent2">
-                        <a:lumMod val="60000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:round/>
-                  </a:ln>
-                  <a:effectLst/>
-                </c:spPr>
-                <c:marker>
-                  <c:symbol val="none"/>
-                </c:marker>
-                <c:cat>
-                  <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>'White Background'!$A$2:$A$26</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="25"/>
-                      <c:pt idx="0">
-                        <c:v>5</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>10</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>15</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>20</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>25</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>30</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>35</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>40</c:v>
-                      </c:pt>
-                      <c:pt idx="8">
-                        <c:v>45</c:v>
-                      </c:pt>
-                      <c:pt idx="9">
-                        <c:v>50</c:v>
-                      </c:pt>
-                      <c:pt idx="10">
-                        <c:v>55</c:v>
-                      </c:pt>
-                      <c:pt idx="11">
-                        <c:v>60</c:v>
-                      </c:pt>
-                      <c:pt idx="12">
-                        <c:v>65</c:v>
-                      </c:pt>
-                      <c:pt idx="13">
-                        <c:v>70</c:v>
-                      </c:pt>
-                      <c:pt idx="14">
-                        <c:v>75</c:v>
-                      </c:pt>
-                      <c:pt idx="15">
-                        <c:v>80</c:v>
-                      </c:pt>
-                      <c:pt idx="16">
-                        <c:v>85</c:v>
-                      </c:pt>
-                      <c:pt idx="17">
-                        <c:v>90</c:v>
-                      </c:pt>
-                      <c:pt idx="18">
-                        <c:v>95</c:v>
-                      </c:pt>
-                      <c:pt idx="19">
-                        <c:v>100</c:v>
-                      </c:pt>
-                      <c:pt idx="20">
-                        <c:v>105</c:v>
-                      </c:pt>
-                      <c:pt idx="21">
-                        <c:v>110</c:v>
-                      </c:pt>
-                      <c:pt idx="22">
-                        <c:v>115</c:v>
-                      </c:pt>
-                      <c:pt idx="23">
-                        <c:v>120</c:v>
-                      </c:pt>
-                      <c:pt idx="24">
-                        <c:v>125</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:cat>
-                <c:val>
-                  <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>'White Background'!$H$2:$H$26</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="25"/>
-                      <c:pt idx="0">
-                        <c:v>3.5848963441374497</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>3.5820633629117089</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>3.4693801358499252</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>3.2966651902615309</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>3.1595671932336202</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>3.0224283711854865</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>2.8915374576725643</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>2.7634279935629373</c:v>
-                      </c:pt>
-                      <c:pt idx="8">
-                        <c:v>2.6730209071288962</c:v>
-                      </c:pt>
-                      <c:pt idx="9">
-                        <c:v>2.5646660642520893</c:v>
-                      </c:pt>
-                      <c:pt idx="10">
-                        <c:v>2.4983105537896004</c:v>
-                      </c:pt>
-                      <c:pt idx="11">
-                        <c:v>2.4149733479708178</c:v>
-                      </c:pt>
-                      <c:pt idx="12">
-                        <c:v>2.3364597338485296</c:v>
-                      </c:pt>
-                      <c:pt idx="13">
-                        <c:v>2.2405492482825999</c:v>
-                      </c:pt>
-                      <c:pt idx="14">
-                        <c:v>2.1931245983544616</c:v>
-                      </c:pt>
-                      <c:pt idx="15">
-                        <c:v>2.1003705451175629</c:v>
-                      </c:pt>
-                      <c:pt idx="16">
-                        <c:v>2.0211892990699383</c:v>
-                      </c:pt>
-                      <c:pt idx="17">
-                        <c:v>1.954242509439325</c:v>
-                      </c:pt>
-                      <c:pt idx="18">
-                        <c:v>1.8573324964312685</c:v>
-                      </c:pt>
-                      <c:pt idx="19">
-                        <c:v>1.7481880270062005</c:v>
-                      </c:pt>
-                      <c:pt idx="20">
-                        <c:v>1.7242758696007889</c:v>
-                      </c:pt>
-                      <c:pt idx="21">
-                        <c:v>1.6532125137753437</c:v>
-                      </c:pt>
-                      <c:pt idx="22">
-                        <c:v>1.5910646070264991</c:v>
-                      </c:pt>
-                      <c:pt idx="23">
-                        <c:v>1.3979400086720377</c:v>
-                      </c:pt>
-                      <c:pt idx="24">
-                        <c:v>1.3424226808222062</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:val>
-                <c:smooth val="0"/>
-                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000007-C429-488F-BC67-56CC6B7FEA84}"/>
                   </c:ext>
                 </c:extLst>
               </c15:ser>
@@ -5543,229 +5166,6 @@
                 <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{0000000B-C429-488F-BC67-56CC6B7FEA84}"/>
-                  </c:ext>
-                </c:extLst>
-              </c15:ser>
-            </c15:filteredLineSeries>
-            <c15:filteredLineSeries>
-              <c15:ser>
-                <c:idx val="11"/>
-                <c:order val="11"/>
-                <c:tx>
-                  <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>'White Background'!$M$1</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="1"/>
-                      <c:pt idx="0">
-                        <c:v>Average of LOG</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c:tx>
-                <c:spPr>
-                  <a:ln w="28575" cap="rnd">
-                    <a:solidFill>
-                      <a:schemeClr val="accent6">
-                        <a:lumMod val="60000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:round/>
-                  </a:ln>
-                  <a:effectLst/>
-                </c:spPr>
-                <c:marker>
-                  <c:symbol val="none"/>
-                </c:marker>
-                <c:cat>
-                  <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>'White Background'!$A$2:$A$26</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="25"/>
-                      <c:pt idx="0">
-                        <c:v>5</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>10</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>15</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>20</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>25</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>30</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>35</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>40</c:v>
-                      </c:pt>
-                      <c:pt idx="8">
-                        <c:v>45</c:v>
-                      </c:pt>
-                      <c:pt idx="9">
-                        <c:v>50</c:v>
-                      </c:pt>
-                      <c:pt idx="10">
-                        <c:v>55</c:v>
-                      </c:pt>
-                      <c:pt idx="11">
-                        <c:v>60</c:v>
-                      </c:pt>
-                      <c:pt idx="12">
-                        <c:v>65</c:v>
-                      </c:pt>
-                      <c:pt idx="13">
-                        <c:v>70</c:v>
-                      </c:pt>
-                      <c:pt idx="14">
-                        <c:v>75</c:v>
-                      </c:pt>
-                      <c:pt idx="15">
-                        <c:v>80</c:v>
-                      </c:pt>
-                      <c:pt idx="16">
-                        <c:v>85</c:v>
-                      </c:pt>
-                      <c:pt idx="17">
-                        <c:v>90</c:v>
-                      </c:pt>
-                      <c:pt idx="18">
-                        <c:v>95</c:v>
-                      </c:pt>
-                      <c:pt idx="19">
-                        <c:v>100</c:v>
-                      </c:pt>
-                      <c:pt idx="20">
-                        <c:v>105</c:v>
-                      </c:pt>
-                      <c:pt idx="21">
-                        <c:v>110</c:v>
-                      </c:pt>
-                      <c:pt idx="22">
-                        <c:v>115</c:v>
-                      </c:pt>
-                      <c:pt idx="23">
-                        <c:v>120</c:v>
-                      </c:pt>
-                      <c:pt idx="24">
-                        <c:v>125</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:cat>
-                <c:val>
-                  <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>'White Background'!$M$2:$M$26</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="25"/>
-                      <c:pt idx="0">
-                        <c:v>3.5841423602358162</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>3.5791280919107176</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>3.4407155726873477</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>3.2669093576467412</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>3.1117702925517938</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>2.9705514719350661</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>2.8463433219111232</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>2.7253745617221452</c:v>
-                      </c:pt>
-                      <c:pt idx="8">
-                        <c:v>2.6285058233584562</c:v>
-                      </c:pt>
-                      <c:pt idx="9">
-                        <c:v>2.5253811549951966</c:v>
-                      </c:pt>
-                      <c:pt idx="10">
-                        <c:v>2.4482344470434296</c:v>
-                      </c:pt>
-                      <c:pt idx="11">
-                        <c:v>2.3632597983350401</c:v>
-                      </c:pt>
-                      <c:pt idx="12">
-                        <c:v>2.2878579484961112</c:v>
-                      </c:pt>
-                      <c:pt idx="13">
-                        <c:v>2.2023240685028576</c:v>
-                      </c:pt>
-                      <c:pt idx="14">
-                        <c:v>2.134694951257091</c:v>
-                      </c:pt>
-                      <c:pt idx="15">
-                        <c:v>2.0488771751032284</c:v>
-                      </c:pt>
-                      <c:pt idx="16">
-                        <c:v>1.9765402326786481</c:v>
-                      </c:pt>
-                      <c:pt idx="17">
-                        <c:v>1.8974628660504615</c:v>
-                      </c:pt>
-                      <c:pt idx="18">
-                        <c:v>1.8116080987561645</c:v>
-                      </c:pt>
-                      <c:pt idx="19">
-                        <c:v>1.7239205155796453</c:v>
-                      </c:pt>
-                      <c:pt idx="20">
-                        <c:v>1.6603312051927588</c:v>
-                      </c:pt>
-                      <c:pt idx="21">
-                        <c:v>1.5720567826199512</c:v>
-                      </c:pt>
-                      <c:pt idx="22">
-                        <c:v>1.5198491851934779</c:v>
-                      </c:pt>
-                      <c:pt idx="23">
-                        <c:v>1.3444745851623165</c:v>
-                      </c:pt>
-                      <c:pt idx="24">
-                        <c:v>1.2825242197140374</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:val>
-                <c:smooth val="0"/>
-                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{0000000C-C429-488F-BC67-56CC6B7FEA84}"/>
                   </c:ext>
                 </c:extLst>
               </c15:ser>
@@ -6007,6 +5407,253 @@
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'White Background'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'White Background'!$A$2:$A$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>125</c:v>
+                </c:pt>
+              </c:numCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'White Background'!$B$2:$B$26</c:f>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-2D6A-4AFB-ACC1-DEF3124F1255}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'White Background'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Readings 1</c:v>
+                </c:pt>
+              </c:strCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'White Background'!$A$2:$A$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>125</c:v>
+                </c:pt>
+              </c:numCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'White Background'!$C$2:$C$26</c:f>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-2D6A-4AFB-ACC1-DEF3124F1255}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
           <c:idx val="3"/>
           <c:order val="3"/>
           <c:tx>
@@ -6119,91 +5766,137 @@
           <c:val>
             <c:numRef>
               <c:f>'White Background'!$D$2:$D$26</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="25"/>
-                <c:pt idx="0">
-                  <c:v>3.5837653682849999</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3.5758803156806458</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.406540180433955</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3.2430380486862944</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3.0791812460476247</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2.9268567089496922</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2.8169038393756605</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2.6884198220027105</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2.5954962218255742</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2.4969296480732148</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2.4166405073382808</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2.330413773349191</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2.255272505103306</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2.1760912590556813</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2.1003705451175629</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>2.012837224705172</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1.9493900066449128</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1.8573324964312685</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1.7781512503836436</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1.7075701760979363</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>1.6232492903979006</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>1.5314789170422551</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>1.4771212547196624</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>1.255272505103306</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>1.2041199826559248</c:v>
-                </c:pt>
-              </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-2D6A-4AFB-ACC1-DEF3124F1255}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'White Background'!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Readings 2</c:v>
+                </c:pt>
+              </c:strCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'White Background'!$A$2:$A$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>125</c:v>
+                </c:pt>
+              </c:numCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'White Background'!$E$2:$E$26</c:f>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-2D6A-4AFB-ACC1-DEF3124F1255}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6320,91 +6013,139 @@
           <c:val>
             <c:numRef>
               <c:f>'White Background'!$F$2:$F$26</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="25"/>
-                <c:pt idx="0">
-                  <c:v>3.5837653682849999</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3.5794405971397971</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.446226401778163</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3.2610248339923973</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3.0965624383741357</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2.9623693356700209</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2.8305886686851442</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2.7242758696007892</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2.6170003411208991</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2.514547752660286</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2.4297522800024081</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2.3443922736851106</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2.271841606536499</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2.1903316981702914</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2.1105897102992488</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>2.0334237554869499</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1.9590413923210936</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1.8808135922807914</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1.7993405494535817</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1.7160033436347992</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>1.6334684555795864</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>1.5314789170422551</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>1.4913616938342726</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>1.3802112417116059</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>1.3010299956639813</c:v>
-                </c:pt>
-              </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000005-2D6A-4AFB-ACC1-DEF3124F1255}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'White Background'!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Readings 3</c:v>
+                </c:pt>
+              </c:strCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'White Background'!$A$2:$A$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>125</c:v>
+                </c:pt>
+              </c:numCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'White Background'!$G$2:$G$26</c:f>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-2D6A-4AFB-ACC1-DEF3124F1255}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6523,85 +6264,6 @@
           <c:val>
             <c:numRef>
               <c:f>'White Background'!$H$2:$H$26</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="25"/>
-                <c:pt idx="0">
-                  <c:v>3.5848963441374497</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3.5820633629117089</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.4693801358499252</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3.2966651902615309</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3.1595671932336202</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3.0224283711854865</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2.8915374576725643</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2.7634279935629373</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2.6730209071288962</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2.5646660642520893</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2.4983105537896004</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2.4149733479708178</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2.3364597338485296</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2.2405492482825999</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2.1931245983544616</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>2.1003705451175629</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>2.0211892990699383</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1.954242509439325</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1.8573324964312685</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1.7481880270062005</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>1.7242758696007889</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>1.6532125137753437</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>1.5910646070264991</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>1.3979400086720377</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>1.3424226808222062</c:v>
-                </c:pt>
-              </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
@@ -6929,85 +6591,6 @@
           <c:val>
             <c:numRef>
               <c:f>'White Background'!$M$2:$M$26</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="25"/>
-                <c:pt idx="0">
-                  <c:v>3.5841423602358162</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3.5791280919107176</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.4407155726873477</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3.2669093576467412</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3.1117702925517938</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2.9705514719350661</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2.8463433219111232</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2.7253745617221452</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2.6285058233584562</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2.5253811549951966</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2.4482344470434296</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2.3632597983350401</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2.2878579484961112</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2.2023240685028576</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2.134694951257091</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>2.0488771751032284</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1.9765402326786481</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1.8974628660504615</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1.8116080987561645</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1.7239205155796453</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>1.6603312051927588</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>1.5720567826199512</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>1.5198491851934779</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>1.3444745851623165</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>1.2825242197140374</c:v>
-                </c:pt>
-              </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
@@ -7247,814 +6830,6 @@
                 <c:extLst>
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000000-2D6A-4AFB-ACC1-DEF3124F1255}"/>
-                  </c:ext>
-                </c:extLst>
-              </c15:ser>
-            </c15:filteredLineSeries>
-            <c15:filteredLineSeries>
-              <c15:ser>
-                <c:idx val="1"/>
-                <c:order val="1"/>
-                <c:tx>
-                  <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>'White Background'!$B$1</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="1"/>
-                    </c:strCache>
-                  </c:strRef>
-                </c:tx>
-                <c:spPr>
-                  <a:ln w="28575" cap="rnd">
-                    <a:solidFill>
-                      <a:schemeClr val="accent2"/>
-                    </a:solidFill>
-                    <a:round/>
-                  </a:ln>
-                  <a:effectLst/>
-                </c:spPr>
-                <c:marker>
-                  <c:symbol val="none"/>
-                </c:marker>
-                <c:cat>
-                  <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>'White Background'!$A$2:$A$26</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="25"/>
-                      <c:pt idx="0">
-                        <c:v>5</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>10</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>15</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>20</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>25</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>30</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>35</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>40</c:v>
-                      </c:pt>
-                      <c:pt idx="8">
-                        <c:v>45</c:v>
-                      </c:pt>
-                      <c:pt idx="9">
-                        <c:v>50</c:v>
-                      </c:pt>
-                      <c:pt idx="10">
-                        <c:v>55</c:v>
-                      </c:pt>
-                      <c:pt idx="11">
-                        <c:v>60</c:v>
-                      </c:pt>
-                      <c:pt idx="12">
-                        <c:v>65</c:v>
-                      </c:pt>
-                      <c:pt idx="13">
-                        <c:v>70</c:v>
-                      </c:pt>
-                      <c:pt idx="14">
-                        <c:v>75</c:v>
-                      </c:pt>
-                      <c:pt idx="15">
-                        <c:v>80</c:v>
-                      </c:pt>
-                      <c:pt idx="16">
-                        <c:v>85</c:v>
-                      </c:pt>
-                      <c:pt idx="17">
-                        <c:v>90</c:v>
-                      </c:pt>
-                      <c:pt idx="18">
-                        <c:v>95</c:v>
-                      </c:pt>
-                      <c:pt idx="19">
-                        <c:v>100</c:v>
-                      </c:pt>
-                      <c:pt idx="20">
-                        <c:v>105</c:v>
-                      </c:pt>
-                      <c:pt idx="21">
-                        <c:v>110</c:v>
-                      </c:pt>
-                      <c:pt idx="22">
-                        <c:v>115</c:v>
-                      </c:pt>
-                      <c:pt idx="23">
-                        <c:v>120</c:v>
-                      </c:pt>
-                      <c:pt idx="24">
-                        <c:v>125</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:cat>
-                <c:val>
-                  <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>'White Background'!$B$2:$B$26</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="25"/>
-                    </c:numCache>
-                  </c:numRef>
-                </c:val>
-                <c:smooth val="0"/>
-                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000001-2D6A-4AFB-ACC1-DEF3124F1255}"/>
-                  </c:ext>
-                </c:extLst>
-              </c15:ser>
-            </c15:filteredLineSeries>
-            <c15:filteredLineSeries>
-              <c15:ser>
-                <c:idx val="2"/>
-                <c:order val="2"/>
-                <c:tx>
-                  <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>'White Background'!$C$1</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="1"/>
-                      <c:pt idx="0">
-                        <c:v>Readings 1</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c:tx>
-                <c:spPr>
-                  <a:ln w="28575" cap="rnd">
-                    <a:solidFill>
-                      <a:schemeClr val="accent3"/>
-                    </a:solidFill>
-                    <a:round/>
-                  </a:ln>
-                  <a:effectLst/>
-                </c:spPr>
-                <c:marker>
-                  <c:symbol val="none"/>
-                </c:marker>
-                <c:cat>
-                  <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>'White Background'!$A$2:$A$26</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="25"/>
-                      <c:pt idx="0">
-                        <c:v>5</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>10</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>15</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>20</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>25</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>30</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>35</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>40</c:v>
-                      </c:pt>
-                      <c:pt idx="8">
-                        <c:v>45</c:v>
-                      </c:pt>
-                      <c:pt idx="9">
-                        <c:v>50</c:v>
-                      </c:pt>
-                      <c:pt idx="10">
-                        <c:v>55</c:v>
-                      </c:pt>
-                      <c:pt idx="11">
-                        <c:v>60</c:v>
-                      </c:pt>
-                      <c:pt idx="12">
-                        <c:v>65</c:v>
-                      </c:pt>
-                      <c:pt idx="13">
-                        <c:v>70</c:v>
-                      </c:pt>
-                      <c:pt idx="14">
-                        <c:v>75</c:v>
-                      </c:pt>
-                      <c:pt idx="15">
-                        <c:v>80</c:v>
-                      </c:pt>
-                      <c:pt idx="16">
-                        <c:v>85</c:v>
-                      </c:pt>
-                      <c:pt idx="17">
-                        <c:v>90</c:v>
-                      </c:pt>
-                      <c:pt idx="18">
-                        <c:v>95</c:v>
-                      </c:pt>
-                      <c:pt idx="19">
-                        <c:v>100</c:v>
-                      </c:pt>
-                      <c:pt idx="20">
-                        <c:v>105</c:v>
-                      </c:pt>
-                      <c:pt idx="21">
-                        <c:v>110</c:v>
-                      </c:pt>
-                      <c:pt idx="22">
-                        <c:v>115</c:v>
-                      </c:pt>
-                      <c:pt idx="23">
-                        <c:v>120</c:v>
-                      </c:pt>
-                      <c:pt idx="24">
-                        <c:v>125</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:cat>
-                <c:val>
-                  <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>'White Background'!$C$2:$C$26</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="25"/>
-                      <c:pt idx="0">
-                        <c:v>3835</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>3766</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>2550</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>1750</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>1200</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>845</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>656</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>488</c:v>
-                      </c:pt>
-                      <c:pt idx="8">
-                        <c:v>394</c:v>
-                      </c:pt>
-                      <c:pt idx="9">
-                        <c:v>314</c:v>
-                      </c:pt>
-                      <c:pt idx="10">
-                        <c:v>261</c:v>
-                      </c:pt>
-                      <c:pt idx="11">
-                        <c:v>214</c:v>
-                      </c:pt>
-                      <c:pt idx="12">
-                        <c:v>180</c:v>
-                      </c:pt>
-                      <c:pt idx="13">
-                        <c:v>150</c:v>
-                      </c:pt>
-                      <c:pt idx="14">
-                        <c:v>126</c:v>
-                      </c:pt>
-                      <c:pt idx="15">
-                        <c:v>103</c:v>
-                      </c:pt>
-                      <c:pt idx="16">
-                        <c:v>89</c:v>
-                      </c:pt>
-                      <c:pt idx="17">
-                        <c:v>72</c:v>
-                      </c:pt>
-                      <c:pt idx="18">
-                        <c:v>60</c:v>
-                      </c:pt>
-                      <c:pt idx="19">
-                        <c:v>51</c:v>
-                      </c:pt>
-                      <c:pt idx="20">
-                        <c:v>42</c:v>
-                      </c:pt>
-                      <c:pt idx="21">
-                        <c:v>34</c:v>
-                      </c:pt>
-                      <c:pt idx="22">
-                        <c:v>30</c:v>
-                      </c:pt>
-                      <c:pt idx="23">
-                        <c:v>18</c:v>
-                      </c:pt>
-                      <c:pt idx="24">
-                        <c:v>16</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:val>
-                <c:smooth val="0"/>
-                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000002-2D6A-4AFB-ACC1-DEF3124F1255}"/>
-                  </c:ext>
-                </c:extLst>
-              </c15:ser>
-            </c15:filteredLineSeries>
-            <c15:filteredLineSeries>
-              <c15:ser>
-                <c:idx val="4"/>
-                <c:order val="4"/>
-                <c:tx>
-                  <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>'White Background'!$E$1</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="1"/>
-                      <c:pt idx="0">
-                        <c:v>Readings 2</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c:tx>
-                <c:spPr>
-                  <a:ln w="28575" cap="rnd">
-                    <a:solidFill>
-                      <a:schemeClr val="accent5"/>
-                    </a:solidFill>
-                    <a:round/>
-                  </a:ln>
-                  <a:effectLst/>
-                </c:spPr>
-                <c:marker>
-                  <c:symbol val="none"/>
-                </c:marker>
-                <c:cat>
-                  <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>'White Background'!$A$2:$A$26</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="25"/>
-                      <c:pt idx="0">
-                        <c:v>5</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>10</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>15</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>20</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>25</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>30</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>35</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>40</c:v>
-                      </c:pt>
-                      <c:pt idx="8">
-                        <c:v>45</c:v>
-                      </c:pt>
-                      <c:pt idx="9">
-                        <c:v>50</c:v>
-                      </c:pt>
-                      <c:pt idx="10">
-                        <c:v>55</c:v>
-                      </c:pt>
-                      <c:pt idx="11">
-                        <c:v>60</c:v>
-                      </c:pt>
-                      <c:pt idx="12">
-                        <c:v>65</c:v>
-                      </c:pt>
-                      <c:pt idx="13">
-                        <c:v>70</c:v>
-                      </c:pt>
-                      <c:pt idx="14">
-                        <c:v>75</c:v>
-                      </c:pt>
-                      <c:pt idx="15">
-                        <c:v>80</c:v>
-                      </c:pt>
-                      <c:pt idx="16">
-                        <c:v>85</c:v>
-                      </c:pt>
-                      <c:pt idx="17">
-                        <c:v>90</c:v>
-                      </c:pt>
-                      <c:pt idx="18">
-                        <c:v>95</c:v>
-                      </c:pt>
-                      <c:pt idx="19">
-                        <c:v>100</c:v>
-                      </c:pt>
-                      <c:pt idx="20">
-                        <c:v>105</c:v>
-                      </c:pt>
-                      <c:pt idx="21">
-                        <c:v>110</c:v>
-                      </c:pt>
-                      <c:pt idx="22">
-                        <c:v>115</c:v>
-                      </c:pt>
-                      <c:pt idx="23">
-                        <c:v>120</c:v>
-                      </c:pt>
-                      <c:pt idx="24">
-                        <c:v>125</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:cat>
-                <c:val>
-                  <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>'White Background'!$E$2:$E$26</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="25"/>
-                      <c:pt idx="0">
-                        <c:v>3835</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>3797</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>2794</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>1824</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>1249</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>917</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>677</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>530</c:v>
-                      </c:pt>
-                      <c:pt idx="8">
-                        <c:v>414</c:v>
-                      </c:pt>
-                      <c:pt idx="9">
-                        <c:v>327</c:v>
-                      </c:pt>
-                      <c:pt idx="10">
-                        <c:v>269</c:v>
-                      </c:pt>
-                      <c:pt idx="11">
-                        <c:v>221</c:v>
-                      </c:pt>
-                      <c:pt idx="12">
-                        <c:v>187</c:v>
-                      </c:pt>
-                      <c:pt idx="13">
-                        <c:v>155</c:v>
-                      </c:pt>
-                      <c:pt idx="14">
-                        <c:v>129</c:v>
-                      </c:pt>
-                      <c:pt idx="15">
-                        <c:v>108</c:v>
-                      </c:pt>
-                      <c:pt idx="16">
-                        <c:v>91</c:v>
-                      </c:pt>
-                      <c:pt idx="17">
-                        <c:v>76</c:v>
-                      </c:pt>
-                      <c:pt idx="18">
-                        <c:v>63</c:v>
-                      </c:pt>
-                      <c:pt idx="19">
-                        <c:v>52</c:v>
-                      </c:pt>
-                      <c:pt idx="20">
-                        <c:v>43</c:v>
-                      </c:pt>
-                      <c:pt idx="21">
-                        <c:v>34</c:v>
-                      </c:pt>
-                      <c:pt idx="22">
-                        <c:v>31</c:v>
-                      </c:pt>
-                      <c:pt idx="23">
-                        <c:v>24</c:v>
-                      </c:pt>
-                      <c:pt idx="24">
-                        <c:v>20</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:val>
-                <c:smooth val="0"/>
-                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000004-2D6A-4AFB-ACC1-DEF3124F1255}"/>
-                  </c:ext>
-                </c:extLst>
-              </c15:ser>
-            </c15:filteredLineSeries>
-            <c15:filteredLineSeries>
-              <c15:ser>
-                <c:idx val="6"/>
-                <c:order val="6"/>
-                <c:tx>
-                  <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>'White Background'!$G$1</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="1"/>
-                      <c:pt idx="0">
-                        <c:v>Readings 3</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c:tx>
-                <c:spPr>
-                  <a:ln w="28575" cap="rnd">
-                    <a:solidFill>
-                      <a:schemeClr val="accent1">
-                        <a:lumMod val="60000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:round/>
-                  </a:ln>
-                  <a:effectLst/>
-                </c:spPr>
-                <c:marker>
-                  <c:symbol val="none"/>
-                </c:marker>
-                <c:cat>
-                  <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>'White Background'!$A$2:$A$26</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="25"/>
-                      <c:pt idx="0">
-                        <c:v>5</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>10</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>15</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>20</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>25</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>30</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>35</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>40</c:v>
-                      </c:pt>
-                      <c:pt idx="8">
-                        <c:v>45</c:v>
-                      </c:pt>
-                      <c:pt idx="9">
-                        <c:v>50</c:v>
-                      </c:pt>
-                      <c:pt idx="10">
-                        <c:v>55</c:v>
-                      </c:pt>
-                      <c:pt idx="11">
-                        <c:v>60</c:v>
-                      </c:pt>
-                      <c:pt idx="12">
-                        <c:v>65</c:v>
-                      </c:pt>
-                      <c:pt idx="13">
-                        <c:v>70</c:v>
-                      </c:pt>
-                      <c:pt idx="14">
-                        <c:v>75</c:v>
-                      </c:pt>
-                      <c:pt idx="15">
-                        <c:v>80</c:v>
-                      </c:pt>
-                      <c:pt idx="16">
-                        <c:v>85</c:v>
-                      </c:pt>
-                      <c:pt idx="17">
-                        <c:v>90</c:v>
-                      </c:pt>
-                      <c:pt idx="18">
-                        <c:v>95</c:v>
-                      </c:pt>
-                      <c:pt idx="19">
-                        <c:v>100</c:v>
-                      </c:pt>
-                      <c:pt idx="20">
-                        <c:v>105</c:v>
-                      </c:pt>
-                      <c:pt idx="21">
-                        <c:v>110</c:v>
-                      </c:pt>
-                      <c:pt idx="22">
-                        <c:v>115</c:v>
-                      </c:pt>
-                      <c:pt idx="23">
-                        <c:v>120</c:v>
-                      </c:pt>
-                      <c:pt idx="24">
-                        <c:v>125</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:cat>
-                <c:val>
-                  <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>'White Background'!$G$2:$G$26</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="25"/>
-                      <c:pt idx="0">
-                        <c:v>3845</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>3820</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>2947</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>1980</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>1444</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>1053</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>779</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>580</c:v>
-                      </c:pt>
-                      <c:pt idx="8">
-                        <c:v>471</c:v>
-                      </c:pt>
-                      <c:pt idx="9">
-                        <c:v>367</c:v>
-                      </c:pt>
-                      <c:pt idx="10">
-                        <c:v>315</c:v>
-                      </c:pt>
-                      <c:pt idx="11">
-                        <c:v>260</c:v>
-                      </c:pt>
-                      <c:pt idx="12">
-                        <c:v>217</c:v>
-                      </c:pt>
-                      <c:pt idx="13">
-                        <c:v>174</c:v>
-                      </c:pt>
-                      <c:pt idx="14">
-                        <c:v>156</c:v>
-                      </c:pt>
-                      <c:pt idx="15">
-                        <c:v>126</c:v>
-                      </c:pt>
-                      <c:pt idx="16">
-                        <c:v>105</c:v>
-                      </c:pt>
-                      <c:pt idx="17">
-                        <c:v>90</c:v>
-                      </c:pt>
-                      <c:pt idx="18">
-                        <c:v>72</c:v>
-                      </c:pt>
-                      <c:pt idx="19">
-                        <c:v>56</c:v>
-                      </c:pt>
-                      <c:pt idx="20">
-                        <c:v>53</c:v>
-                      </c:pt>
-                      <c:pt idx="21">
-                        <c:v>45</c:v>
-                      </c:pt>
-                      <c:pt idx="22">
-                        <c:v>39</c:v>
-                      </c:pt>
-                      <c:pt idx="23">
-                        <c:v>25</c:v>
-                      </c:pt>
-                      <c:pt idx="24">
-                        <c:v>22</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:val>
-                <c:smooth val="0"/>
-                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000006-2D6A-4AFB-ACC1-DEF3124F1255}"/>
                   </c:ext>
                 </c:extLst>
               </c15:ser>
@@ -8651,6 +7426,9 @@
               <c:f>'White Background'!$U$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>log(log(Average))*m+c</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
@@ -8849,6 +7627,9 @@
               <c:f>'White Background'!$V$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>difference from actual value</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
@@ -15822,7 +14603,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.17</cx:f>
+        <cx:f dir="row">_xlchart.v1.16</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -15852,7 +14633,7 @@
         <cx:series layoutId="clusteredColumn" uniqueId="{AE47F5EC-61C1-4CBC-A19C-29BBE03D2DBE}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.16</cx:f>
+              <cx:f>_xlchart.v1.15</cx:f>
               <cx:v>10</cx:v>
             </cx:txData>
           </cx:tx>
@@ -15881,7 +14662,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.7</cx:f>
+        <cx:f dir="row">_xlchart.v1.22</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -15911,7 +14692,7 @@
         <cx:series layoutId="clusteredColumn" uniqueId="{C0926043-AAAB-4142-B698-46D763991021}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.6</cx:f>
+              <cx:f>_xlchart.v1.21</cx:f>
               <cx:v>20</cx:v>
             </cx:txData>
           </cx:tx>
@@ -15940,7 +14721,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.15</cx:f>
+        <cx:f dir="row">_xlchart.v1.5</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -15970,7 +14751,7 @@
         <cx:series layoutId="clusteredColumn" uniqueId="{6A893261-3336-4165-895B-E566C27F4722}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.14</cx:f>
+              <cx:f>_xlchart.v1.4</cx:f>
               <cx:v>40</cx:v>
             </cx:txData>
           </cx:tx>
@@ -15999,7 +14780,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.18</cx:f>
+        <cx:f dir="row">_xlchart.v1.6</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -16052,7 +14833,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.3</cx:f>
+        <cx:f dir="row">_xlchart.v1.18</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -16082,7 +14863,7 @@
         <cx:series layoutId="clusteredColumn" uniqueId="{466954EA-2313-41B5-8489-3DDB34DFF2A2}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.2</cx:f>
+              <cx:f>_xlchart.v1.17</cx:f>
               <cx:v>10</cx:v>
             </cx:txData>
           </cx:tx>
@@ -16111,7 +14892,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.11</cx:f>
+        <cx:f dir="row">_xlchart.v1.10</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -16141,7 +14922,7 @@
         <cx:series layoutId="clusteredColumn" uniqueId="{09D1CE20-446E-4A4D-811B-EA483C9E8E78}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.10</cx:f>
+              <cx:f>_xlchart.v1.9</cx:f>
               <cx:v>50</cx:v>
             </cx:txData>
           </cx:tx>
@@ -16170,7 +14951,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.9</cx:f>
+        <cx:f dir="row">_xlchart.v1.12</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -16200,7 +14981,7 @@
         <cx:series layoutId="clusteredColumn" uniqueId="{6A893261-3336-4165-895B-E566C27F4722}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.8</cx:f>
+              <cx:f>_xlchart.v1.11</cx:f>
               <cx:v>30</cx:v>
             </cx:txData>
           </cx:tx>
@@ -16229,7 +15010,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.20</cx:f>
+        <cx:f dir="row">_xlchart.v1.14</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -16259,7 +15040,7 @@
         <cx:series layoutId="clusteredColumn" uniqueId="{C01AEB22-4D65-407D-8C9B-F6333761B630}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.19</cx:f>
+              <cx:f>_xlchart.v1.13</cx:f>
               <cx:v>30</cx:v>
             </cx:txData>
           </cx:tx>
@@ -16288,7 +15069,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.22</cx:f>
+        <cx:f dir="row">_xlchart.v1.8</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -16318,7 +15099,7 @@
         <cx:series layoutId="clusteredColumn" uniqueId="{9C9BADE0-1E3C-4804-B032-60D3A4F76CBE}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.21</cx:f>
+              <cx:f>_xlchart.v1.7</cx:f>
               <cx:v>70</cx:v>
             </cx:txData>
           </cx:tx>
@@ -16347,7 +15128,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.5</cx:f>
+        <cx:f dir="row">_xlchart.v1.20</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -16377,7 +15158,7 @@
         <cx:series layoutId="clusteredColumn" uniqueId="{DE0D111F-C52C-458C-837E-2517F888EF43}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.4</cx:f>
+              <cx:f>_xlchart.v1.19</cx:f>
               <cx:v>70</cx:v>
             </cx:txData>
           </cx:tx>
@@ -16406,7 +15187,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.13</cx:f>
+        <cx:f dir="row">_xlchart.v1.1</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -16436,7 +15217,7 @@
         <cx:series layoutId="clusteredColumn" uniqueId="{0FEAABCF-CBC8-4D19-97A3-18CADA5A176A}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.12</cx:f>
+              <cx:f>_xlchart.v1.0</cx:f>
               <cx:v>50</cx:v>
             </cx:txData>
           </cx:tx>
@@ -16465,7 +15246,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.1</cx:f>
+        <cx:f dir="row">_xlchart.v1.3</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -16495,7 +15276,7 @@
         <cx:series layoutId="clusteredColumn" uniqueId="{AE47F5EC-61C1-4CBC-A19C-29BBE03D2DBE}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.0</cx:f>
+              <cx:f>_xlchart.v1.2</cx:f>
               <cx:v>20</cx:v>
             </cx:txData>
           </cx:tx>
@@ -28425,8 +27206,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="5842907" y="3652158"/>
-              <a:ext cx="4572000" cy="2743200"/>
+              <a:off x="5842907" y="3507378"/>
+              <a:ext cx="4572000" cy="2636520"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -28958,7 +27739,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G34"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
@@ -29720,21 +28501,30 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V40"/>
+  <dimension ref="A1:X40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AC150" sqref="AC150"/>
+    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="X26" sqref="X26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="4" width="11.88671875" customWidth="1"/>
-    <col min="5" max="6" width="12" customWidth="1"/>
-    <col min="7" max="7" width="11.44140625" customWidth="1"/>
-    <col min="11" max="13" width="15.5546875" customWidth="1"/>
+    <col min="2" max="2" width="0" hidden="1" customWidth="1"/>
+    <col min="3" max="4" width="11.88671875" hidden="1" customWidth="1"/>
+    <col min="5" max="6" width="12" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="11.44140625" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="0" hidden="1" customWidth="1"/>
+    <col min="11" max="12" width="15.5546875" customWidth="1"/>
+    <col min="13" max="13" width="15.5546875" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="16.21875" customWidth="1"/>
+    <col min="16" max="17" width="0" hidden="1" customWidth="1"/>
+    <col min="18" max="18" width="14.44140625" customWidth="1"/>
+    <col min="19" max="19" width="5.5546875" hidden="1" customWidth="1"/>
+    <col min="21" max="21" width="19.33203125" customWidth="1"/>
+    <col min="22" max="22" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:22" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -29767,6 +28557,18 @@
       </c>
       <c r="M1" t="s">
         <v>15</v>
+      </c>
+      <c r="O1" t="s">
+        <v>45</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="U1" t="s">
+        <v>46</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.3">
@@ -30759,7 +29561,7 @@
         <v>3.1699468437062421</v>
       </c>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>80</v>
       </c>
@@ -30825,7 +29627,7 @@
         <v>3.1768720342035692</v>
       </c>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>85</v>
       </c>
@@ -30891,7 +29693,7 @@
         <v>3.7951885396638829</v>
       </c>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>90</v>
       </c>
@@ -30957,7 +29759,7 @@
         <v>3.8997351367622031</v>
       </c>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>95</v>
       </c>
@@ -31023,7 +29825,7 @@
         <v>3.246171114910382</v>
       </c>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>100</v>
       </c>
@@ -31089,7 +29891,7 @@
         <v>2.1687941403034046</v>
       </c>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>105</v>
       </c>
@@ -31155,7 +29957,7 @@
         <v>2.7642919851801366</v>
       </c>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>110</v>
       </c>
@@ -31221,7 +30023,7 @@
         <v>1.2641876379239534</v>
       </c>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>115</v>
       </c>
@@ -31287,7 +30089,7 @@
         <v>2.1105540843083759</v>
       </c>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>120</v>
       </c>
@@ -31353,7 +30155,7 @@
         <v>-7.5922900076078719</v>
       </c>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>125</v>
       </c>
@@ -31419,7 +30221,10 @@
         <v>-8.3576094566874701</v>
       </c>
     </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="X27" s="1"/>
+    </row>
+    <row r="32" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>5</v>
       </c>
@@ -32266,8 +31071,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z40"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="N30" sqref="N30"/>
+    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="L38" sqref="L38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -34380,6 +33185,10 @@
       <c r="A37" t="s">
         <v>21</v>
       </c>
+      <c r="L37">
+        <f>('Black Background'!L32+'White Background'!L32)/2</f>
+        <v>136.9642339655901</v>
+      </c>
       <c r="S37">
         <f>MEDIAN(S2:S26)</f>
         <v>-2.1950305869284108</v>
@@ -34400,6 +33209,10 @@
     <row r="38" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>22</v>
+      </c>
+      <c r="L38">
+        <f>('Black Background'!L33+'White Background'!L33)/2</f>
+        <v>-238.60813100111568</v>
       </c>
       <c r="S38">
         <f>MAX(S2:S26)</f>
